--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Ziegler_(zoologiste)/Thomas_Ziegler_(zoologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Ziegler_(zoologiste)/Thomas_Ziegler_(zoologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Ziegler est un herpétologiste allemand né en 1970.
 Il travaille au zoo de Cologne. C'est un spécialiste de l'herpétofaune indomalaise.
@@ -512,10 +524,12 @@
           <t>Taxon nommé en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cyrtodactylus ziegleri Nazarov, Orlov, Nguyen &amp; Ho, 2008[1]
-Pseudocalotes ziegleri Hallermann, Truong, Orlov &amp; Ananjeva, 2010[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cyrtodactylus ziegleri Nazarov, Orlov, Nguyen &amp; Ho, 2008
+Pseudocalotes ziegleri Hallermann, Truong, Orlov &amp; Ananjeva, 2010
 Tylototriton ziegleri Nishikawa, Matsui, Nguyen, 2013</t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amphiesma andreae Ziegler &amp; Le Khac Quyet, 2006
